--- a/Problems/data_structure_rigid_plane_frames_q4.xlsx
+++ b/Problems/data_structure_rigid_plane_frames_q4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qtr1230\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A4B51-B0A2-4CFB-A8A1-BEBAA1482F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F1DF1-9EFB-4149-BFF4-8ED99F8BFBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="540" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13335" yWindow="1845" windowWidth="15465" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -479,6 +479,9 @@
       <c r="F3" s="2">
         <v>2.4</v>
       </c>
+      <c r="G3" s="3">
+        <v>300000000000</v>
+      </c>
       <c r="H3" s="6">
         <v>1.5E-3</v>
       </c>
@@ -487,6 +490,9 @@
       </c>
       <c r="K3" s="2">
         <v>2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
       </c>
       <c r="M3" s="7">
         <f>2.5 * 10^-6</f>
@@ -509,6 +515,9 @@
       <c r="F4" s="2">
         <v>2.4</v>
       </c>
+      <c r="G4" s="3">
+        <v>300000000000</v>
+      </c>
       <c r="H4" s="6">
         <v>1.5E-3</v>
       </c>
@@ -517,6 +526,9 @@
       </c>
       <c r="K4">
         <v>3</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
       </c>
       <c r="M4" s="7">
         <f>2.5 * 10^-6</f>
